--- a/list/info.xlsx
+++ b/list/info.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327EE2C-C876-CF4B-82CB-B1C5581532A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名簿" sheetId="1" r:id="rId1"/>
     <sheet name="集計" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -180,6 +190,314 @@
     <t>合計</t>
     <rPh sb="0" eb="2">
       <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>666-0006</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>522-0042</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>888-0008</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>994-0023</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>111-0323</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>049-3849</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵庫</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヒョウゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北海道</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ホッカイドウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滋賀</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フクオカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三重</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ミエ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>京都</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">キョウト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田智成</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イワタ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トモナリ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柏木雅也</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カシワギ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">マサヤ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市井雄大</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチイ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ユウダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺村優希</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テラムラ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">ユウキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土田知史</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツチダ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">トモフミフミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本正尚</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オカモト </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">マサナオ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明宝小学校</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">メイホウ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ショウガッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>西北小学校</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイホク </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ショウガッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>匿名小学校</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トクメイ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ショウガッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落命小学校</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ラクメイ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ショウガッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明小学校</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウメイ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ショウガッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改名小学校</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイメイ </t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t xml:space="preserve">ショウガッコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩田ママ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イワタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>柏木ママ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カシワギママ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市井ママ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イチイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寺村ママ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テラムラ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土田ママ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ツチダ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡本ママ</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オカモト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2323-4856</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-7453-0987</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-7584-9022</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2636-4859</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-7685-0403</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-2738-5748</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>090-2323-4857</t>
+  </si>
+  <si>
+    <t>080-7453-0988</t>
+  </si>
+  <si>
+    <t>090-7584-9023</t>
+  </si>
+  <si>
+    <t>090-2636-4860</t>
+  </si>
+  <si>
+    <t>090-7685-0404</t>
+  </si>
+  <si>
+    <t>080-2738-5749</t>
+  </si>
+  <si>
+    <t>dum@mail.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adfa@gado.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adfwe@mai.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thkjf@ga.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eryib@ga.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gaae@caw.com</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進学おめでとう</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シンガク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">トクニナシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -187,8 +505,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +519,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -221,13 +547,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -505,24 +834,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
     <col min="11" max="11" width="15" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,26 +892,280 @@
       </c>
       <c r="M1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2021</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{11D50D5E-26A8-EB4C-8A7B-7C8B21E52CB8}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{B0925F9B-0DDD-4742-9F2C-2E6F3FF92A58}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{03A950A0-3D75-7C42-B104-1BB97B7F26C1}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{844D0E7D-A7FD-0940-BCD8-F66FA504BFA8}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{225407F5-97B5-1B46-90EB-1677A9147AE9}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{4DE1A527-FCCB-3C47-A040-D05F46A02CFF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -613,6 +1198,222 @@
       </c>
       <c r="K1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>900</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>2000</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>SUM(C2:J2)</f>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>400</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>900</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>3000</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K7" si="0">SUM(C3:J3)</f>
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>2390</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>900</v>
+      </c>
+      <c r="F4">
+        <v>220</v>
+      </c>
+      <c r="G4">
+        <v>1000</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1000</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>5710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5">
+        <v>3190</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>900</v>
+      </c>
+      <c r="F5">
+        <v>430</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>390</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>6210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>5400</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>900</v>
+      </c>
+      <c r="F6">
+        <v>650</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>200</v>
+      </c>
+      <c r="I6">
+        <v>2000</v>
+      </c>
+      <c r="J6">
+        <v>450</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7">
+        <v>2230</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>230</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1200</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>4660</v>
       </c>
     </row>
   </sheetData>

--- a/list/info.xlsx
+++ b/list/info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3327EE2C-C876-CF4B-82CB-B1C5581532A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DA26DB-7B9C-9A48-A117-E0D2C8D36F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="14040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名簿" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="74">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -835,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -853,12 +853,12 @@
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -893,13 +893,40 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2">
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>42</v>
@@ -934,13 +961,41 @@
       <c r="M2" t="s">
         <v>73</v>
       </c>
+      <c r="N2">
+        <v>2000</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>900</v>
+      </c>
+      <c r="Q2">
+        <v>100</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1000</v>
+      </c>
+      <c r="T2">
+        <v>2000</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>SUM(N2:U2)</f>
+        <v>6000</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
+    <row r="3" spans="1:22">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -975,13 +1030,41 @@
       <c r="M3" t="s">
         <v>73</v>
       </c>
+      <c r="N3">
+        <v>400</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>900</v>
+      </c>
+      <c r="Q3">
+        <v>300</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>3000</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V7" si="0">SUM(N3:U3)</f>
+        <v>4600</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -1016,13 +1099,41 @@
       <c r="M4" t="s">
         <v>73</v>
       </c>
+      <c r="N4">
+        <v>2390</v>
+      </c>
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <v>900</v>
+      </c>
+      <c r="Q4">
+        <v>220</v>
+      </c>
+      <c r="R4">
+        <v>1000</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1000</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>5710</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -1057,13 +1168,41 @@
       <c r="M5" t="s">
         <v>73</v>
       </c>
+      <c r="N5">
+        <v>3190</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>900</v>
+      </c>
+      <c r="Q5">
+        <v>430</v>
+      </c>
+      <c r="R5">
+        <v>200</v>
+      </c>
+      <c r="S5">
+        <v>1000</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>390</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>6210</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -1098,13 +1237,41 @@
       <c r="M6" t="s">
         <v>73</v>
       </c>
+      <c r="N6">
+        <v>5400</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>900</v>
+      </c>
+      <c r="Q6">
+        <v>650</v>
+      </c>
+      <c r="R6">
+        <v>300</v>
+      </c>
+      <c r="S6">
+        <v>200</v>
+      </c>
+      <c r="T6">
+        <v>2000</v>
+      </c>
+      <c r="U6">
+        <v>450</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>47</v>
@@ -1138,6 +1305,34 @@
       </c>
       <c r="M7" t="s">
         <v>73</v>
+      </c>
+      <c r="N7">
+        <v>2230</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>1000</v>
+      </c>
+      <c r="Q7">
+        <v>230</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>1200</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>4660</v>
       </c>
     </row>
   </sheetData>
@@ -1159,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
